--- a/target/classes/com/selenium_project/resources/UsersInfoExcel.xlsx
+++ b/target/classes/com/selenium_project/resources/UsersInfoExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fall 2024\SWER312 - SOFTWARE TESTING &amp; QUALITY ASSURANCE\selenium\src\main\java\com\selenium_project\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A18AC7-B064-481C-82CE-3ED11BAF4DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E4C39-A0D5-4134-9409-3B817F95A83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B74ECC32-4AE3-4E29-9748-769E5B66EB2A}"/>
   </bookViews>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBBF4BF-486D-4642-9F9C-97954569B52D}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
